--- a/Code/Results/Cases/Case_5_131/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_131/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.010914553955068</v>
+        <v>1.042429616583995</v>
       </c>
       <c r="D2">
-        <v>1.031139896553054</v>
+        <v>1.049457249154486</v>
       </c>
       <c r="E2">
-        <v>1.025869677733091</v>
+        <v>1.050228828920262</v>
       </c>
       <c r="F2">
-        <v>1.036867544106769</v>
+        <v>1.060249651280139</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.048776809849064</v>
+        <v>1.039097680877022</v>
       </c>
       <c r="J2">
-        <v>1.032773642256762</v>
+        <v>1.04750548468758</v>
       </c>
       <c r="K2">
-        <v>1.042181802047164</v>
+        <v>1.052214254234562</v>
       </c>
       <c r="L2">
-        <v>1.036979998097912</v>
+        <v>1.052983687805741</v>
       </c>
       <c r="M2">
-        <v>1.047836081807451</v>
+        <v>1.062976943930869</v>
       </c>
       <c r="N2">
-        <v>1.005712725503999</v>
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.015435781634786</v>
+        <v>1.043401473473572</v>
       </c>
       <c r="D3">
-        <v>1.034522915790306</v>
+        <v>1.050203754475487</v>
       </c>
       <c r="E3">
-        <v>1.029554399382003</v>
+        <v>1.051068603394769</v>
       </c>
       <c r="F3">
-        <v>1.040688516861266</v>
+        <v>1.061115303175654</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049834528942093</v>
+        <v>1.039264375099796</v>
       </c>
       <c r="J3">
-        <v>1.035514317169379</v>
+        <v>1.048123665262534</v>
       </c>
       <c r="K3">
-        <v>1.04473233241904</v>
+        <v>1.052773179295484</v>
       </c>
       <c r="L3">
-        <v>1.039822591496539</v>
+        <v>1.053635796209765</v>
       </c>
       <c r="M3">
-        <v>1.050825961560036</v>
+        <v>1.063656854833151</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.018304698261574</v>
+        <v>1.044030973681405</v>
       </c>
       <c r="D4">
-        <v>1.036671785285565</v>
+        <v>1.050687164070496</v>
       </c>
       <c r="E4">
-        <v>1.031898127572486</v>
+        <v>1.051612867765385</v>
       </c>
       <c r="F4">
-        <v>1.043117836689971</v>
+        <v>1.061676206222317</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050495643675368</v>
+        <v>1.039371074807582</v>
       </c>
       <c r="J4">
-        <v>1.037251481560975</v>
+        <v>1.048523693946497</v>
       </c>
       <c r="K4">
-        <v>1.046346878240037</v>
+        <v>1.053134545177883</v>
       </c>
       <c r="L4">
-        <v>1.041626229457476</v>
+        <v>1.054057979907647</v>
       </c>
       <c r="M4">
-        <v>1.052722294639762</v>
+        <v>1.064096926758423</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.019497708163021</v>
+        <v>1.044295768638591</v>
       </c>
       <c r="D5">
-        <v>1.037565841633187</v>
+        <v>1.050890476723763</v>
       </c>
       <c r="E5">
-        <v>1.032874043786868</v>
+        <v>1.051841884308697</v>
       </c>
       <c r="F5">
-        <v>1.044129132342428</v>
+        <v>1.06191219226649</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050768108763415</v>
+        <v>1.039415652461198</v>
       </c>
       <c r="J5">
-        <v>1.037973369269281</v>
+        <v>1.04869187080648</v>
       </c>
       <c r="K5">
-        <v>1.0470172939671</v>
+        <v>1.053286391388146</v>
       </c>
       <c r="L5">
-        <v>1.042376187603063</v>
+        <v>1.054235518857298</v>
       </c>
       <c r="M5">
-        <v>1.05351060839932</v>
+        <v>1.064281961423095</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.019697265915669</v>
+        <v>1.044340237822431</v>
       </c>
       <c r="D6">
-        <v>1.037715418749716</v>
+        <v>1.050924618886334</v>
       </c>
       <c r="E6">
-        <v>1.033037362887713</v>
+        <v>1.051880349337011</v>
       </c>
       <c r="F6">
-        <v>1.044298356781042</v>
+        <v>1.061951826012878</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050813539346058</v>
+        <v>1.039423120873681</v>
       </c>
       <c r="J6">
-        <v>1.03809409115748</v>
+        <v>1.048720108691822</v>
       </c>
       <c r="K6">
-        <v>1.047129377338898</v>
+        <v>1.053311882779311</v>
       </c>
       <c r="L6">
-        <v>1.042501629946959</v>
+        <v>1.054265331497563</v>
       </c>
       <c r="M6">
-        <v>1.053642455164989</v>
+        <v>1.06431303118716</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.018320690114706</v>
+        <v>1.04403451128444</v>
       </c>
       <c r="D7">
-        <v>1.036683767991255</v>
+        <v>1.050689880403128</v>
       </c>
       <c r="E7">
-        <v>1.031911204288182</v>
+        <v>1.051615927080967</v>
       </c>
       <c r="F7">
-        <v>1.043131388501813</v>
+        <v>1.061679358764614</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050499305707843</v>
+        <v>1.039371671552988</v>
       </c>
       <c r="J7">
-        <v>1.0372611601955</v>
+        <v>1.048525941116403</v>
       </c>
       <c r="K7">
-        <v>1.046355868831107</v>
+        <v>1.053136574438746</v>
       </c>
       <c r="L7">
-        <v>1.041636282680565</v>
+        <v>1.054060351985298</v>
       </c>
       <c r="M7">
-        <v>1.052732862768191</v>
+        <v>1.064099399090579</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.012454539234903</v>
+        <v>1.042757926224945</v>
       </c>
       <c r="D8">
-        <v>1.032291699152104</v>
+        <v>1.049709456460889</v>
       </c>
       <c r="E8">
-        <v>1.027123534570262</v>
+        <v>1.05051245275892</v>
       </c>
       <c r="F8">
-        <v>1.03816798784867</v>
+        <v>1.060542042359917</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.049139163765161</v>
+        <v>1.039154256348442</v>
       </c>
       <c r="J8">
-        <v>1.033707528645643</v>
+        <v>1.047714395988748</v>
       </c>
       <c r="K8">
-        <v>1.043051327436602</v>
+        <v>1.052403206178902</v>
       </c>
       <c r="L8">
-        <v>1.037948218932567</v>
+        <v>1.053204023404193</v>
       </c>
       <c r="M8">
-        <v>1.048854625856888</v>
+        <v>1.063206696534087</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.00166157309832</v>
+        <v>1.040513398000349</v>
       </c>
       <c r="D9">
-        <v>1.024231008583154</v>
+        <v>1.047984729623433</v>
       </c>
       <c r="E9">
-        <v>1.018361636265909</v>
+        <v>1.048574749625076</v>
       </c>
       <c r="F9">
-        <v>1.029076143544702</v>
+        <v>1.058543898928308</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046558713715765</v>
+        <v>1.038762264257143</v>
       </c>
       <c r="J9">
-        <v>1.027155793067197</v>
+        <v>1.046284584716024</v>
       </c>
       <c r="K9">
-        <v>1.036942817541847</v>
+        <v>1.051108701003354</v>
       </c>
       <c r="L9">
-        <v>1.031163671042548</v>
+        <v>1.051696845312641</v>
       </c>
       <c r="M9">
-        <v>1.041714459194004</v>
+        <v>1.061634647816357</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9941263435853849</v>
+        <v>1.039020454730539</v>
       </c>
       <c r="D10">
-        <v>1.018620992758028</v>
+        <v>1.046836953737093</v>
       </c>
       <c r="E10">
-        <v>1.012279424360141</v>
+        <v>1.0472875791803</v>
       </c>
       <c r="F10">
-        <v>1.022759461547368</v>
+        <v>1.057215897810546</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044707093511332</v>
+        <v>1.038495000693024</v>
       </c>
       <c r="J10">
-        <v>1.022574955687396</v>
+        <v>1.045331598191676</v>
       </c>
       <c r="K10">
-        <v>1.032661986219083</v>
+        <v>1.05024427479114</v>
       </c>
       <c r="L10">
-        <v>1.026430453803494</v>
+        <v>1.050693327463663</v>
       </c>
       <c r="M10">
-        <v>1.036729596447567</v>
+        <v>1.060587368537109</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9907748420676027</v>
+        <v>1.038374815080541</v>
       </c>
       <c r="D11">
-        <v>1.016130913233608</v>
+        <v>1.046340456978481</v>
       </c>
       <c r="E11">
-        <v>1.009583287326687</v>
+        <v>1.046731336892778</v>
       </c>
       <c r="F11">
-        <v>1.01995814837057</v>
+        <v>1.056641849017959</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043872289644262</v>
+        <v>1.038377871890806</v>
       </c>
       <c r="J11">
-        <v>1.020536498802731</v>
+        <v>1.044919010028748</v>
       </c>
       <c r="K11">
-        <v>1.030754903526685</v>
+        <v>1.049869645326843</v>
       </c>
       <c r="L11">
-        <v>1.024326711879713</v>
+        <v>1.050259108238989</v>
       </c>
       <c r="M11">
-        <v>1.034513248998433</v>
+        <v>1.060134079555237</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9895158809279463</v>
+        <v>1.03813511913626</v>
       </c>
       <c r="D12">
-        <v>1.015196392670322</v>
+        <v>1.046156112237947</v>
       </c>
       <c r="E12">
-        <v>1.008571945389999</v>
+        <v>1.046524892106737</v>
       </c>
       <c r="F12">
-        <v>1.01890717221778</v>
+        <v>1.056428771170416</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043557069391674</v>
+        <v>1.038334154962514</v>
       </c>
       <c r="J12">
-        <v>1.019770671971319</v>
+        <v>1.044765766652612</v>
       </c>
       <c r="K12">
-        <v>1.030038132138552</v>
+        <v>1.049730443213382</v>
       </c>
       <c r="L12">
-        <v>1.02353674267952</v>
+        <v>1.050097867695635</v>
       </c>
       <c r="M12">
-        <v>1.033680889173673</v>
+        <v>1.059965737623938</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9897865812192549</v>
+        <v>1.0381865291315</v>
       </c>
       <c r="D13">
-        <v>1.015397292101337</v>
+        <v>1.046195651335829</v>
       </c>
       <c r="E13">
-        <v>1.008789336770108</v>
+        <v>1.046569167571929</v>
       </c>
       <c r="F13">
-        <v>1.019133091250571</v>
+        <v>1.056474470305264</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043624920567793</v>
+        <v>1.038343541889631</v>
       </c>
       <c r="J13">
-        <v>1.019935342741618</v>
+        <v>1.044798637397144</v>
       </c>
       <c r="K13">
-        <v>1.030192268095929</v>
+        <v>1.049760304695792</v>
       </c>
       <c r="L13">
-        <v>1.023706587160091</v>
+        <v>1.050132452157661</v>
       </c>
       <c r="M13">
-        <v>1.033859852386839</v>
+        <v>1.06000184617191</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9906710673027286</v>
+        <v>1.038354999216644</v>
       </c>
       <c r="D14">
-        <v>1.01605386385744</v>
+        <v>1.046325217420456</v>
       </c>
       <c r="E14">
-        <v>1.009499893892534</v>
+        <v>1.046714268659358</v>
       </c>
       <c r="F14">
-        <v>1.019871490441864</v>
+        <v>1.05662423287936</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.04384633927267</v>
+        <v>1.038374262518198</v>
       </c>
       <c r="J14">
-        <v>1.020473374255851</v>
+        <v>1.044906342668657</v>
       </c>
       <c r="K14">
-        <v>1.030695828450828</v>
+        <v>1.049858139810506</v>
       </c>
       <c r="L14">
-        <v>1.02426158950843</v>
+        <v>1.050245779063451</v>
       </c>
       <c r="M14">
-        <v>1.034444634209485</v>
+        <v>1.060120163743929</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9912141417771675</v>
+        <v>1.038458815573265</v>
       </c>
       <c r="D15">
-        <v>1.016457114310015</v>
+        <v>1.046405057511067</v>
       </c>
       <c r="E15">
-        <v>1.009936367749241</v>
+        <v>1.046803692581793</v>
       </c>
       <c r="F15">
-        <v>1.020325042984199</v>
+        <v>1.05671652639123</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043982076582584</v>
+        <v>1.038393162690621</v>
       </c>
       <c r="J15">
-        <v>1.020803714140281</v>
+        <v>1.044972704828634</v>
       </c>
       <c r="K15">
-        <v>1.03100496473472</v>
+        <v>1.049918412919758</v>
       </c>
       <c r="L15">
-        <v>1.024602400006507</v>
+        <v>1.050315609879881</v>
       </c>
       <c r="M15">
-        <v>1.034803717579655</v>
+        <v>1.060193067088632</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9943468410576638</v>
+        <v>1.039063320954634</v>
       </c>
       <c r="D16">
-        <v>1.018784930689562</v>
+        <v>1.04686991520542</v>
       </c>
       <c r="E16">
-        <v>1.01245700046812</v>
+        <v>1.047324518680401</v>
       </c>
       <c r="F16">
-        <v>1.022943939381789</v>
+        <v>1.057254016410272</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044761786067786</v>
+        <v>1.038502744655688</v>
       </c>
       <c r="J16">
-        <v>1.022709050503327</v>
+        <v>1.045358981688417</v>
       </c>
       <c r="K16">
-        <v>1.032787396175074</v>
+        <v>1.050269130915621</v>
       </c>
       <c r="L16">
-        <v>1.026568896271411</v>
+        <v>1.050722151805551</v>
       </c>
       <c r="M16">
-        <v>1.036875434038062</v>
+        <v>1.06061745594117</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9962876479977857</v>
+        <v>1.039442730000337</v>
       </c>
       <c r="D17">
-        <v>1.020228497776255</v>
+        <v>1.047161642466965</v>
       </c>
       <c r="E17">
-        <v>1.014021060029297</v>
+        <v>1.047651517603972</v>
       </c>
       <c r="F17">
-        <v>1.024568647214945</v>
+        <v>1.057591434345611</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045241912850054</v>
+        <v>1.038571107579598</v>
       </c>
       <c r="J17">
-        <v>1.023889237730504</v>
+        <v>1.045601300093061</v>
       </c>
       <c r="K17">
-        <v>1.033890906746493</v>
+        <v>1.050489040228158</v>
       </c>
       <c r="L17">
-        <v>1.027787635756468</v>
+        <v>1.050977248784326</v>
       </c>
       <c r="M17">
-        <v>1.038159188882489</v>
+        <v>1.060883715572234</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9974111823030709</v>
+        <v>1.039664111412381</v>
       </c>
       <c r="D18">
-        <v>1.021064660962004</v>
+        <v>1.047331849971951</v>
       </c>
       <c r="E18">
-        <v>1.014927353740327</v>
+        <v>1.047842357642732</v>
       </c>
       <c r="F18">
-        <v>1.025509965290438</v>
+        <v>1.057788339401595</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.045518787066599</v>
+        <v>1.038610847215302</v>
       </c>
       <c r="J18">
-        <v>1.024572350077354</v>
+        <v>1.045742646163314</v>
       </c>
       <c r="K18">
-        <v>1.034529434096326</v>
+        <v>1.050617277964092</v>
       </c>
       <c r="L18">
-        <v>1.028493301968272</v>
+        <v>1.051126072430407</v>
       </c>
       <c r="M18">
-        <v>1.038902427302703</v>
+        <v>1.061039038544481</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9977928573859793</v>
+        <v>1.03973961004405</v>
       </c>
       <c r="D19">
-        <v>1.021348792586757</v>
+        <v>1.047389894417232</v>
       </c>
       <c r="E19">
-        <v>1.015235373761799</v>
+        <v>1.047907447285956</v>
       </c>
       <c r="F19">
-        <v>1.02582986877757</v>
+        <v>1.05785549498445</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.045612660448487</v>
+        <v>1.038624374438098</v>
       </c>
       <c r="J19">
-        <v>1.024804391459337</v>
+        <v>1.045790842480589</v>
       </c>
       <c r="K19">
-        <v>1.034746295693336</v>
+        <v>1.050660998316721</v>
       </c>
       <c r="L19">
-        <v>1.028733044920694</v>
+        <v>1.051176822483623</v>
       </c>
       <c r="M19">
-        <v>1.039154922511353</v>
+        <v>1.061092002718771</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9960803027261396</v>
+        <v>1.039402014870104</v>
       </c>
       <c r="D20">
-        <v>1.020074224389739</v>
+        <v>1.047130337924484</v>
       </c>
       <c r="E20">
-        <v>1.013853874829728</v>
+        <v>1.047616422625923</v>
       </c>
       <c r="F20">
-        <v>1.024394991442066</v>
+        <v>1.057555222769186</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045190729473015</v>
+        <v>1.038563786875735</v>
       </c>
       <c r="J20">
-        <v>1.023763162820899</v>
+        <v>1.045575301009541</v>
       </c>
       <c r="K20">
-        <v>1.033773043863533</v>
+        <v>1.05046544930534</v>
       </c>
       <c r="L20">
-        <v>1.027657417607366</v>
+        <v>1.05094987619235</v>
       </c>
       <c r="M20">
-        <v>1.038022031537073</v>
+        <v>1.060855146538547</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9904110026243763</v>
+        <v>1.038305385562102</v>
       </c>
       <c r="D21">
-        <v>1.015860788393942</v>
+        <v>1.046287061320813</v>
       </c>
       <c r="E21">
-        <v>1.009290929241025</v>
+        <v>1.046671535346282</v>
       </c>
       <c r="F21">
-        <v>1.019654342807479</v>
+        <v>1.056580127396632</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043781280234609</v>
+        <v>1.038365221853509</v>
       </c>
       <c r="J21">
-        <v>1.020315179613697</v>
+        <v>1.044874625859779</v>
       </c>
       <c r="K21">
-        <v>1.030547777299522</v>
+        <v>1.049829331125199</v>
       </c>
       <c r="L21">
-        <v>1.024098394389189</v>
+        <v>1.050212405785317</v>
       </c>
       <c r="M21">
-        <v>1.034272685484386</v>
+        <v>1.060085321335817</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9867647137424426</v>
+        <v>1.037616605453966</v>
       </c>
       <c r="D22">
-        <v>1.013155884033927</v>
+        <v>1.045757301810711</v>
       </c>
       <c r="E22">
-        <v>1.006364616758824</v>
+        <v>1.046078422044168</v>
       </c>
       <c r="F22">
-        <v>1.016613010036785</v>
+        <v>1.055967911568892</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.042865288653162</v>
+        <v>1.038239160979643</v>
       </c>
       <c r="J22">
-        <v>1.018097012409092</v>
+        <v>1.044434143328695</v>
       </c>
       <c r="K22">
-        <v>1.028471149099942</v>
+        <v>1.049429100925165</v>
       </c>
       <c r="L22">
-        <v>1.021811035045391</v>
+        <v>1.049749006052155</v>
       </c>
       <c r="M22">
-        <v>1.031862390902174</v>
+        <v>1.059601474592385</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9887056918624951</v>
+        <v>1.037981672789205</v>
       </c>
       <c r="D23">
-        <v>1.014595245262972</v>
+        <v>1.046038094964528</v>
       </c>
       <c r="E23">
-        <v>1.007921522877966</v>
+        <v>1.0463927497406</v>
       </c>
       <c r="F23">
-        <v>1.018231209171882</v>
+        <v>1.056292376227829</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043353760060178</v>
+        <v>1.038306103234731</v>
       </c>
       <c r="J23">
-        <v>1.019277812239707</v>
+        <v>1.044667645445168</v>
       </c>
       <c r="K23">
-        <v>1.029576760592993</v>
+        <v>1.04964129645536</v>
       </c>
       <c r="L23">
-        <v>1.023028454820798</v>
+        <v>1.049994636363206</v>
       </c>
       <c r="M23">
-        <v>1.033145296976001</v>
+        <v>1.059857954095896</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9961740193602525</v>
+        <v>1.039420412042297</v>
       </c>
       <c r="D24">
-        <v>1.020143951923567</v>
+        <v>1.04714448295181</v>
       </c>
       <c r="E24">
-        <v>1.013929437118674</v>
+        <v>1.047632280205095</v>
       </c>
       <c r="F24">
-        <v>1.024473478587116</v>
+        <v>1.057571584928855</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045213866838939</v>
+        <v>1.038567095204805</v>
       </c>
       <c r="J24">
-        <v>1.023820146905293</v>
+        <v>1.045587048858304</v>
       </c>
       <c r="K24">
-        <v>1.033826316859074</v>
+        <v>1.05047610912579</v>
       </c>
       <c r="L24">
-        <v>1.027716273636607</v>
+        <v>1.05096224459617</v>
       </c>
       <c r="M24">
-        <v>1.038084024171302</v>
+        <v>1.060868055598917</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.004509157622516</v>
+        <v>1.041093066077208</v>
       </c>
       <c r="D25">
-        <v>1.026354971776537</v>
+        <v>1.048430259418182</v>
       </c>
       <c r="E25">
-        <v>1.020667560217699</v>
+        <v>1.049074882334041</v>
       </c>
       <c r="F25">
-        <v>1.03146985665953</v>
+        <v>1.059059751938384</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.047248365756667</v>
+        <v>1.038864652280607</v>
       </c>
       <c r="J25">
-        <v>1.028885717736547</v>
+        <v>1.046654190871923</v>
       </c>
       <c r="K25">
-        <v>1.038557486908183</v>
+        <v>1.051443617341201</v>
       </c>
       <c r="L25">
-        <v>1.03295329240251</v>
+        <v>1.052086268635498</v>
       </c>
       <c r="M25">
-        <v>1.043598524372644</v>
+        <v>1.062040932901625</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_131/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_131/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.042429616583995</v>
+        <v>1.010914553955068</v>
       </c>
       <c r="D2">
-        <v>1.049457249154486</v>
+        <v>1.031139896553054</v>
       </c>
       <c r="E2">
-        <v>1.050228828920262</v>
+        <v>1.025869677733091</v>
       </c>
       <c r="F2">
-        <v>1.060249651280139</v>
+        <v>1.036867544106769</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039097680877022</v>
+        <v>1.048776809849064</v>
       </c>
       <c r="J2">
-        <v>1.04750548468758</v>
+        <v>1.032773642256762</v>
       </c>
       <c r="K2">
-        <v>1.052214254234562</v>
+        <v>1.042181802047164</v>
       </c>
       <c r="L2">
-        <v>1.052983687805741</v>
+        <v>1.036979998097912</v>
       </c>
       <c r="M2">
-        <v>1.062976943930869</v>
+        <v>1.047836081807451</v>
       </c>
       <c r="N2">
-        <v>1.005712725503983</v>
+        <v>1.005712725503999</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.043401473473572</v>
+        <v>1.015435781634785</v>
       </c>
       <c r="D3">
-        <v>1.050203754475487</v>
+        <v>1.034522915790305</v>
       </c>
       <c r="E3">
-        <v>1.051068603394769</v>
+        <v>1.029554399382001</v>
       </c>
       <c r="F3">
-        <v>1.061115303175654</v>
+        <v>1.040688516861265</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039264375099796</v>
+        <v>1.049834528942093</v>
       </c>
       <c r="J3">
-        <v>1.048123665262534</v>
+        <v>1.035514317169378</v>
       </c>
       <c r="K3">
-        <v>1.052773179295484</v>
+        <v>1.044732332419039</v>
       </c>
       <c r="L3">
-        <v>1.053635796209765</v>
+        <v>1.039822591496538</v>
       </c>
       <c r="M3">
-        <v>1.063656854833151</v>
+        <v>1.050825961560035</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.044030973681405</v>
+        <v>1.018304698261574</v>
       </c>
       <c r="D4">
-        <v>1.050687164070496</v>
+        <v>1.036671785285564</v>
       </c>
       <c r="E4">
-        <v>1.051612867765385</v>
+        <v>1.031898127572485</v>
       </c>
       <c r="F4">
-        <v>1.061676206222317</v>
+        <v>1.04311783668997</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.039371074807582</v>
+        <v>1.050495643675367</v>
       </c>
       <c r="J4">
-        <v>1.048523693946497</v>
+        <v>1.037251481560974</v>
       </c>
       <c r="K4">
-        <v>1.053134545177883</v>
+        <v>1.046346878240036</v>
       </c>
       <c r="L4">
-        <v>1.054057979907647</v>
+        <v>1.041626229457476</v>
       </c>
       <c r="M4">
-        <v>1.064096926758423</v>
+        <v>1.052722294639761</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.044295768638591</v>
+        <v>1.019497708163021</v>
       </c>
       <c r="D5">
-        <v>1.050890476723763</v>
+        <v>1.037565841633187</v>
       </c>
       <c r="E5">
-        <v>1.051841884308697</v>
+        <v>1.032874043786868</v>
       </c>
       <c r="F5">
-        <v>1.06191219226649</v>
+        <v>1.044129132342428</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039415652461198</v>
+        <v>1.050768108763415</v>
       </c>
       <c r="J5">
-        <v>1.04869187080648</v>
+        <v>1.037973369269282</v>
       </c>
       <c r="K5">
-        <v>1.053286391388146</v>
+        <v>1.0470172939671</v>
       </c>
       <c r="L5">
-        <v>1.054235518857298</v>
+        <v>1.042376187603063</v>
       </c>
       <c r="M5">
-        <v>1.064281961423095</v>
+        <v>1.05351060839932</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.044340237822431</v>
+        <v>1.01969726591567</v>
       </c>
       <c r="D6">
-        <v>1.050924618886334</v>
+        <v>1.037715418749718</v>
       </c>
       <c r="E6">
-        <v>1.051880349337011</v>
+        <v>1.033037362887713</v>
       </c>
       <c r="F6">
-        <v>1.061951826012878</v>
+        <v>1.044298356781042</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039423120873681</v>
+        <v>1.050813539346058</v>
       </c>
       <c r="J6">
-        <v>1.048720108691822</v>
+        <v>1.038094091157481</v>
       </c>
       <c r="K6">
-        <v>1.053311882779311</v>
+        <v>1.047129377338899</v>
       </c>
       <c r="L6">
-        <v>1.054265331497563</v>
+        <v>1.04250162994696</v>
       </c>
       <c r="M6">
-        <v>1.06431303118716</v>
+        <v>1.05364245516499</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.04403451128444</v>
+        <v>1.018320690114704</v>
       </c>
       <c r="D7">
-        <v>1.050689880403128</v>
+        <v>1.036683767991253</v>
       </c>
       <c r="E7">
-        <v>1.051615927080967</v>
+        <v>1.03191120428818</v>
       </c>
       <c r="F7">
-        <v>1.061679358764614</v>
+        <v>1.043131388501812</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.039371671552988</v>
+        <v>1.050499305707843</v>
       </c>
       <c r="J7">
-        <v>1.048525941116403</v>
+        <v>1.037261160195498</v>
       </c>
       <c r="K7">
-        <v>1.053136574438746</v>
+        <v>1.046355868831105</v>
       </c>
       <c r="L7">
-        <v>1.054060351985298</v>
+        <v>1.041636282680563</v>
       </c>
       <c r="M7">
-        <v>1.064099399090579</v>
+        <v>1.052732862768189</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.042757926224945</v>
+        <v>1.012454539234903</v>
       </c>
       <c r="D8">
-        <v>1.049709456460889</v>
+        <v>1.032291699152104</v>
       </c>
       <c r="E8">
-        <v>1.05051245275892</v>
+        <v>1.027123534570262</v>
       </c>
       <c r="F8">
-        <v>1.060542042359917</v>
+        <v>1.03816798784867</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039154256348442</v>
+        <v>1.049139163765161</v>
       </c>
       <c r="J8">
-        <v>1.047714395988748</v>
+        <v>1.033707528645643</v>
       </c>
       <c r="K8">
-        <v>1.052403206178902</v>
+        <v>1.043051327436602</v>
       </c>
       <c r="L8">
-        <v>1.053204023404193</v>
+        <v>1.037948218932567</v>
       </c>
       <c r="M8">
-        <v>1.063206696534087</v>
+        <v>1.048854625856888</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.040513398000349</v>
+        <v>1.00166157309832</v>
       </c>
       <c r="D9">
-        <v>1.047984729623433</v>
+        <v>1.024231008583154</v>
       </c>
       <c r="E9">
-        <v>1.048574749625076</v>
+        <v>1.018361636265909</v>
       </c>
       <c r="F9">
-        <v>1.058543898928308</v>
+        <v>1.029076143544701</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038762264257143</v>
+        <v>1.046558713715765</v>
       </c>
       <c r="J9">
-        <v>1.046284584716024</v>
+        <v>1.027155793067197</v>
       </c>
       <c r="K9">
-        <v>1.051108701003354</v>
+        <v>1.036942817541847</v>
       </c>
       <c r="L9">
-        <v>1.051696845312641</v>
+        <v>1.031163671042548</v>
       </c>
       <c r="M9">
-        <v>1.061634647816357</v>
+        <v>1.041714459194004</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.039020454730539</v>
+        <v>0.9941263435853842</v>
       </c>
       <c r="D10">
-        <v>1.046836953737093</v>
+        <v>1.018620992758028</v>
       </c>
       <c r="E10">
-        <v>1.0472875791803</v>
+        <v>1.012279424360141</v>
       </c>
       <c r="F10">
-        <v>1.057215897810546</v>
+        <v>1.022759461547368</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038495000693024</v>
+        <v>1.044707093511332</v>
       </c>
       <c r="J10">
-        <v>1.045331598191676</v>
+        <v>1.022574955687396</v>
       </c>
       <c r="K10">
-        <v>1.05024427479114</v>
+        <v>1.032661986219082</v>
       </c>
       <c r="L10">
-        <v>1.050693327463663</v>
+        <v>1.026430453803493</v>
       </c>
       <c r="M10">
-        <v>1.060587368537109</v>
+        <v>1.036729596447566</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.038374815080541</v>
+        <v>0.990774842067602</v>
       </c>
       <c r="D11">
-        <v>1.046340456978481</v>
+        <v>1.016130913233608</v>
       </c>
       <c r="E11">
-        <v>1.046731336892778</v>
+        <v>1.009583287326687</v>
       </c>
       <c r="F11">
-        <v>1.056641849017959</v>
+        <v>1.019958148370569</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038377871890806</v>
+        <v>1.043872289644262</v>
       </c>
       <c r="J11">
-        <v>1.044919010028748</v>
+        <v>1.02053649880273</v>
       </c>
       <c r="K11">
-        <v>1.049869645326843</v>
+        <v>1.030754903526685</v>
       </c>
       <c r="L11">
-        <v>1.050259108238989</v>
+        <v>1.024326711879712</v>
       </c>
       <c r="M11">
-        <v>1.060134079555237</v>
+        <v>1.034513248998432</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.03813511913626</v>
+        <v>0.9895158809279458</v>
       </c>
       <c r="D12">
-        <v>1.046156112237947</v>
+        <v>1.015196392670321</v>
       </c>
       <c r="E12">
-        <v>1.046524892106737</v>
+        <v>1.008571945389998</v>
       </c>
       <c r="F12">
-        <v>1.056428771170416</v>
+        <v>1.018907172217779</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038334154962514</v>
+        <v>1.043557069391674</v>
       </c>
       <c r="J12">
-        <v>1.044765766652612</v>
+        <v>1.019770671971318</v>
       </c>
       <c r="K12">
-        <v>1.049730443213382</v>
+        <v>1.030038132138552</v>
       </c>
       <c r="L12">
-        <v>1.050097867695635</v>
+        <v>1.023536742679519</v>
       </c>
       <c r="M12">
-        <v>1.059965737623938</v>
+        <v>1.033680889173672</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.0381865291315</v>
+        <v>0.9897865812192551</v>
       </c>
       <c r="D13">
-        <v>1.046195651335829</v>
+        <v>1.015397292101337</v>
       </c>
       <c r="E13">
-        <v>1.046569167571929</v>
+        <v>1.008789336770108</v>
       </c>
       <c r="F13">
-        <v>1.056474470305264</v>
+        <v>1.019133091250571</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038343541889631</v>
+        <v>1.043624920567793</v>
       </c>
       <c r="J13">
-        <v>1.044798637397144</v>
+        <v>1.019935342741618</v>
       </c>
       <c r="K13">
-        <v>1.049760304695792</v>
+        <v>1.030192268095929</v>
       </c>
       <c r="L13">
-        <v>1.050132452157661</v>
+        <v>1.023706587160091</v>
       </c>
       <c r="M13">
-        <v>1.06000184617191</v>
+        <v>1.033859852386839</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.038354999216644</v>
+        <v>0.9906710673027276</v>
       </c>
       <c r="D14">
-        <v>1.046325217420456</v>
+        <v>1.016053863857439</v>
       </c>
       <c r="E14">
-        <v>1.046714268659358</v>
+        <v>1.009499893892533</v>
       </c>
       <c r="F14">
-        <v>1.05662423287936</v>
+        <v>1.019871490441863</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038374262518198</v>
+        <v>1.04384633927267</v>
       </c>
       <c r="J14">
-        <v>1.044906342668657</v>
+        <v>1.020473374255851</v>
       </c>
       <c r="K14">
-        <v>1.049858139810506</v>
+        <v>1.030695828450827</v>
       </c>
       <c r="L14">
-        <v>1.050245779063451</v>
+        <v>1.024261589508429</v>
       </c>
       <c r="M14">
-        <v>1.060120163743929</v>
+        <v>1.034444634209484</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.038458815573265</v>
+        <v>0.9912141417771686</v>
       </c>
       <c r="D15">
-        <v>1.046405057511067</v>
+        <v>1.016457114310016</v>
       </c>
       <c r="E15">
-        <v>1.046803692581793</v>
+        <v>1.009936367749241</v>
       </c>
       <c r="F15">
-        <v>1.05671652639123</v>
+        <v>1.0203250429842</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038393162690621</v>
+        <v>1.043982076582584</v>
       </c>
       <c r="J15">
-        <v>1.044972704828634</v>
+        <v>1.020803714140282</v>
       </c>
       <c r="K15">
-        <v>1.049918412919758</v>
+        <v>1.031004964734721</v>
       </c>
       <c r="L15">
-        <v>1.050315609879881</v>
+        <v>1.024602400006508</v>
       </c>
       <c r="M15">
-        <v>1.060193067088632</v>
+        <v>1.034803717579655</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.039063320954634</v>
+        <v>0.9943468410576645</v>
       </c>
       <c r="D16">
-        <v>1.04686991520542</v>
+        <v>1.018784930689563</v>
       </c>
       <c r="E16">
-        <v>1.047324518680401</v>
+        <v>1.012457000468121</v>
       </c>
       <c r="F16">
-        <v>1.057254016410272</v>
+        <v>1.022943939381789</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038502744655688</v>
+        <v>1.044761786067786</v>
       </c>
       <c r="J16">
-        <v>1.045358981688417</v>
+        <v>1.022709050503328</v>
       </c>
       <c r="K16">
-        <v>1.050269130915621</v>
+        <v>1.032787396175075</v>
       </c>
       <c r="L16">
-        <v>1.050722151805551</v>
+        <v>1.026568896271411</v>
       </c>
       <c r="M16">
-        <v>1.06061745594117</v>
+        <v>1.036875434038063</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.039442730000337</v>
+        <v>0.9962876479977852</v>
       </c>
       <c r="D17">
-        <v>1.047161642466965</v>
+        <v>1.020228497776254</v>
       </c>
       <c r="E17">
-        <v>1.047651517603972</v>
+        <v>1.014021060029297</v>
       </c>
       <c r="F17">
-        <v>1.057591434345611</v>
+        <v>1.024568647214945</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038571107579598</v>
+        <v>1.045241912850054</v>
       </c>
       <c r="J17">
-        <v>1.045601300093061</v>
+        <v>1.023889237730503</v>
       </c>
       <c r="K17">
-        <v>1.050489040228158</v>
+        <v>1.033890906746492</v>
       </c>
       <c r="L17">
-        <v>1.050977248784326</v>
+        <v>1.027787635756468</v>
       </c>
       <c r="M17">
-        <v>1.060883715572234</v>
+        <v>1.038159188882489</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.039664111412381</v>
+        <v>0.9974111823030711</v>
       </c>
       <c r="D18">
-        <v>1.047331849971951</v>
+        <v>1.021064660962004</v>
       </c>
       <c r="E18">
-        <v>1.047842357642732</v>
+        <v>1.014927353740327</v>
       </c>
       <c r="F18">
-        <v>1.057788339401595</v>
+        <v>1.025509965290438</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038610847215302</v>
+        <v>1.045518787066599</v>
       </c>
       <c r="J18">
-        <v>1.045742646163314</v>
+        <v>1.024572350077354</v>
       </c>
       <c r="K18">
-        <v>1.050617277964092</v>
+        <v>1.034529434096326</v>
       </c>
       <c r="L18">
-        <v>1.051126072430407</v>
+        <v>1.028493301968272</v>
       </c>
       <c r="M18">
-        <v>1.061039038544481</v>
+        <v>1.038902427302703</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.03973961004405</v>
+        <v>0.9977928573859801</v>
       </c>
       <c r="D19">
-        <v>1.047389894417232</v>
+        <v>1.021348792586757</v>
       </c>
       <c r="E19">
-        <v>1.047907447285956</v>
+        <v>1.0152353737618</v>
       </c>
       <c r="F19">
-        <v>1.05785549498445</v>
+        <v>1.02582986877757</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038624374438098</v>
+        <v>1.045612660448487</v>
       </c>
       <c r="J19">
-        <v>1.045790842480589</v>
+        <v>1.024804391459338</v>
       </c>
       <c r="K19">
-        <v>1.050660998316721</v>
+        <v>1.034746295693336</v>
       </c>
       <c r="L19">
-        <v>1.051176822483623</v>
+        <v>1.028733044920694</v>
       </c>
       <c r="M19">
-        <v>1.061092002718771</v>
+        <v>1.039154922511354</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.039402014870104</v>
+        <v>0.9960803027261399</v>
       </c>
       <c r="D20">
-        <v>1.047130337924484</v>
+        <v>1.020074224389739</v>
       </c>
       <c r="E20">
-        <v>1.047616422625923</v>
+        <v>1.013853874829728</v>
       </c>
       <c r="F20">
-        <v>1.057555222769186</v>
+        <v>1.024394991442066</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038563786875735</v>
+        <v>1.045190729473016</v>
       </c>
       <c r="J20">
-        <v>1.045575301009541</v>
+        <v>1.023763162820899</v>
       </c>
       <c r="K20">
-        <v>1.05046544930534</v>
+        <v>1.033773043863534</v>
       </c>
       <c r="L20">
-        <v>1.05094987619235</v>
+        <v>1.027657417607366</v>
       </c>
       <c r="M20">
-        <v>1.060855146538547</v>
+        <v>1.038022031537073</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.038305385562102</v>
+        <v>0.9904110026243755</v>
       </c>
       <c r="D21">
-        <v>1.046287061320813</v>
+        <v>1.015860788393941</v>
       </c>
       <c r="E21">
-        <v>1.046671535346282</v>
+        <v>1.009290929241025</v>
       </c>
       <c r="F21">
-        <v>1.056580127396632</v>
+        <v>1.019654342807478</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038365221853509</v>
+        <v>1.043781280234608</v>
       </c>
       <c r="J21">
-        <v>1.044874625859779</v>
+        <v>1.020315179613696</v>
       </c>
       <c r="K21">
-        <v>1.049829331125199</v>
+        <v>1.030547777299521</v>
       </c>
       <c r="L21">
-        <v>1.050212405785317</v>
+        <v>1.024098394389188</v>
       </c>
       <c r="M21">
-        <v>1.060085321335817</v>
+        <v>1.034272685484384</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.037616605453966</v>
+        <v>0.9867647137424425</v>
       </c>
       <c r="D22">
-        <v>1.045757301810711</v>
+        <v>1.013155884033926</v>
       </c>
       <c r="E22">
-        <v>1.046078422044168</v>
+        <v>1.006364616758824</v>
       </c>
       <c r="F22">
-        <v>1.055967911568892</v>
+        <v>1.016613010036784</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038239160979643</v>
+        <v>1.042865288653162</v>
       </c>
       <c r="J22">
-        <v>1.044434143328695</v>
+        <v>1.018097012409092</v>
       </c>
       <c r="K22">
-        <v>1.049429100925165</v>
+        <v>1.028471149099941</v>
       </c>
       <c r="L22">
-        <v>1.049749006052155</v>
+        <v>1.02181103504539</v>
       </c>
       <c r="M22">
-        <v>1.059601474592385</v>
+        <v>1.031862390902173</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.037981672789205</v>
+        <v>0.9887056918624961</v>
       </c>
       <c r="D23">
-        <v>1.046038094964528</v>
+        <v>1.014595245262973</v>
       </c>
       <c r="E23">
-        <v>1.0463927497406</v>
+        <v>1.007921522877967</v>
       </c>
       <c r="F23">
-        <v>1.056292376227829</v>
+        <v>1.018231209171883</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038306103234731</v>
+        <v>1.043353760060179</v>
       </c>
       <c r="J23">
-        <v>1.044667645445168</v>
+        <v>1.019277812239708</v>
       </c>
       <c r="K23">
-        <v>1.04964129645536</v>
+        <v>1.029576760592994</v>
       </c>
       <c r="L23">
-        <v>1.049994636363206</v>
+        <v>1.023028454820799</v>
       </c>
       <c r="M23">
-        <v>1.059857954095896</v>
+        <v>1.033145296976002</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.039420412042297</v>
+        <v>0.9961740193602527</v>
       </c>
       <c r="D24">
-        <v>1.04714448295181</v>
+        <v>1.020143951923567</v>
       </c>
       <c r="E24">
-        <v>1.047632280205095</v>
+        <v>1.013929437118674</v>
       </c>
       <c r="F24">
-        <v>1.057571584928855</v>
+        <v>1.024473478587115</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038567095204805</v>
+        <v>1.045213866838939</v>
       </c>
       <c r="J24">
-        <v>1.045587048858304</v>
+        <v>1.023820146905294</v>
       </c>
       <c r="K24">
-        <v>1.05047610912579</v>
+        <v>1.033826316859074</v>
       </c>
       <c r="L24">
-        <v>1.05096224459617</v>
+        <v>1.027716273636607</v>
       </c>
       <c r="M24">
-        <v>1.060868055598917</v>
+        <v>1.038084024171302</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.041093066077208</v>
+        <v>1.004509157622514</v>
       </c>
       <c r="D25">
-        <v>1.048430259418182</v>
+        <v>1.026354971776535</v>
       </c>
       <c r="E25">
-        <v>1.049074882334041</v>
+        <v>1.020667560217698</v>
       </c>
       <c r="F25">
-        <v>1.059059751938384</v>
+        <v>1.031469856659529</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038864652280607</v>
+        <v>1.047248365756666</v>
       </c>
       <c r="J25">
-        <v>1.046654190871923</v>
+        <v>1.028885717736546</v>
       </c>
       <c r="K25">
-        <v>1.051443617341201</v>
+        <v>1.038557486908182</v>
       </c>
       <c r="L25">
-        <v>1.052086268635498</v>
+        <v>1.032953292402509</v>
       </c>
       <c r="M25">
-        <v>1.062040932901625</v>
+        <v>1.043598524372643</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>
